--- a/JIRA/teste.xlsx
+++ b/JIRA/teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="2175" windowWidth="28800" windowHeight="13305" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5565" yWindow="2175" windowWidth="28800" windowHeight="13305" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="1" state="visible" r:id="rId1"/>
@@ -989,17 +989,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>TRE-1556</t>
+          <t>TRE-1598</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>TRE-1557</t>
+          <t>TRE-1599</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TRE-1558</t>
+          <t>TRE-1600</t>
         </is>
       </c>
     </row>

--- a/JIRA/teste.xlsx
+++ b/JIRA/teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5565" yWindow="2175" windowWidth="28800" windowHeight="13305" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="1" state="visible" r:id="rId1"/>
@@ -744,29 +744,29 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="39.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="22.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="41.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="33.7109375" customWidth="1" min="12" max="14"/>
-    <col width="20.28515625" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="8.28515625" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="18" max="19"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="11.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23.88671875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="39.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="40.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="14.88671875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="41.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="33.6640625" customWidth="1" min="12" max="14"/>
+    <col width="20.33203125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="8.33203125" bestFit="1" customWidth="1" style="5" min="16" max="16"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" min="18" max="19"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="4" thickBot="1">
@@ -936,35 +936,71 @@
       </c>
       <c r="M2" s="19" t="inlineStr">
         <is>
-          <t>🧾 Requisito definido:
-Adaptar o layout da interface ZV48N para permitir o envio do campo que indica se o pedido realizado na loja WEB da TK é de Revenda ou Consumo.
-🧑‍💼 PO: 
-Ronaldo (SAP)
-📊 Priorização:
-Prioridade: Alta
-Justificativa: Permite diferenciar e tratar corretamente pedidos de Revenda e Consumo, alinhando o processo ao que já é suportado pela plataforma LINX e atendendo à solicitação do cliente.
-Impacto: Garante integridade e rastreabilidade dos pedidos, reduzindo erros operacionais.
-Urgência: Necessidade já identificada em reunião e validada com o fornecedor LINX.
-Dependências: Integração com SAP e validação do campo na interface.
-🔍 Processo atual (AS IS):
-Atualmente, a interface ZV48N não envia a informação se o pedido é de Revenda ou Consumo. Os pedidos realizados na loja WEB são tratados de forma genérica, sem distinção clara entre os dois tipos.
-🚀 Processo futuro (TO BE):
-A interface ZV48N será ajustada para enviar, junto com o pedido, o campo que indica se é Revenda ou Consumo. O SAP receberá e processará essa informação, permitindo o tratamento diferenciado dos pedidos conforme o tipo.
-🎯 Objetivo da mudança:
-Permitir que o SAP trate adequadamente os pedidos de Revenda e Consumo, garantindo que as regras de negócio específicas para cada tipo sejam aplicadas, aumentando a eficiência operacional e a satisfação do cliente.
-✅ Critérios de aceitação (BDD):
-Dado que um pedido é realizado na loja WEB,
-Quando o usuário selecionar o tipo de pedido (Revenda ou Consumo),
-Então a interface ZV48N deve enviar essa informação para o SAP,
-E o SAP deve registrar e processar o pedido conforme o tipo informado.
-🧪 Cenários de teste de validação:
-Realizar um pedido de Revenda na loja WEB e verificar se o campo correspondente é enviado e processado corretamente no SAP.
-Realizar um pedido de Consumo na loja WEB e verificar se o campo correspondente é enviado e processado corretamente no SAP.
-Consultar os logs da interface para garantir que o dado foi transmitido.
-❌ Cenários de teste de rejeição:
-Realizar um pedido sem selecionar o tipo (Revenda ou Consumo) e verificar se o sistema impede o envio ou retorna erro.
-Realizar um pedido e o campo não ser transmitido para o SAP, verificando se o sistema acusa falha ou inconsistência.
-O SAP processar um pedido com o tipo incorreto, gerando alerta ou rejeição.</t>
+          <t>🧾 Requisito Definido
+O sistema IRIS deve capturar o campo de status que já é disponibilizado pela API do software NxTDC durante a chamada de interface. Este status deve ser usado para formatar o nome final do arquivo jobReport.xml antes de disponibilizá-lo na pasta para o sistema AIT.
+•	Formato do Novo Nome: &lt;nome&gt;_&lt;status&gt;.xml
+•	Escopo: A alteração deve ocorrer somente na interface do IRIS com a TDC.
+•	Fora do Escopo: Nenhuma alteração deve ser feita na parte do SAP.
+🧑‍💼 Contato
+•	Product Owner (Negócio): Izabel (Contato para dúvidas de negócio e priorização).
+•	Referência Técnica (Interface): Pablo (Contexto técnico sobre a interface NxTDC que ele mexeu).
+📊 Priorização
+•	Nível: Média.
+•	Justificativa (Valor de Negócio): Esta é uma solicitação direta da área de negócio que visa melhorar a rastreabilidade e a eficiência operacional do sistema AIT. Ao incluir o status no nome do arquivo, o AIT poderá automatizar o processamento subsequente (ex: mover arquivos "Fail" para uma pasta de erro) sem a necessidade de abrir e processar o conteúdo de cada XML para descobrir o resultado. Isso reduz o tempo de processamento e simplifica o monitoramento de falhas.
+🔍 Processo Atual (AS IS)
+1.	O IRIS chama a interface do NxTDC para buscar o arquivo jobReport.xml.
+2.	A API do NxTDC retorna o status do job, mas o IRIS não utiliza (ignora) essa informação.
+3.	O IRIS disponibiliza o arquivo com o nome estático jobReport.xml em uma pasta.
+4.	O AIT localiza o arquivo jobReport.xml e disponibiliza o arquivo para acesso do usuário final..
+🚀 Processo Futuro (TO BE)
+1.	O IRIS chama a interface do NxTDC.
+2.	O IRIS captura o valor do status retornado pela API.
+3.	O IRIS usa esse status para formatar o nome do arquivo de relatório (ex: JobReport_Success.xml, JobReport_Fail.xml, ou JobReport.xml se o status vier em branco).
+4.	O IRIS disponibiliza o arquivo já renomeado na pasta.
+5.	O AIT localiza o arquivo e identifica o status imediatamente pelo nome, direcionando seu fluxo de trabalho.
+🎯 Objetivo da Mudança
+Permitir que o sistema consumidor (AIT) identifique o resultado de um job (Sucesso ou Falha) pela nomenclatura do arquivo, otimizando a automação e o monitoramento do processo sem a necessidade de ler o conteúdo do jobReport.xml.
+✅ Critérios de Aceite (BDD)
+Cenário 1: Job com Sucesso
+•	Dado que o IRIS chamou a interface do NxTDC
+•	E a API do NxTDC retornou um status de "Success" (ou equivalente a Sucesso)
+•	Quando o IRIS for disponibilizar o arquivo de relatório na pasta
+•	Então o arquivo deve ser nomeado como JobReport_Success.xml.
+Cenário 2: Job com Falha
+•	Dado que o IRIS chamou a interface do NxTDC
+•	E a API do NxTDC retornou um status de "Fail" (ou equivalente a Erro)
+•	Quando o IRIS for disponibilizar o arquivo de relatório na pasta
+•	Então o arquivo deve ser nomeado como JobReport_Fail.xml.
+Cenário 3: Status em Branco (Legado ou Nulo)
+•	Dado que o IRIS chamou a interface do NxTDC
+•	E a API do NxTDC retornou um status em branco ou nulo
+•	Quando o IRIS for disponibilizar o arquivo de relatório na pasta
+•	Então o arquivo deve ser nomeado como JobReport.xml (sem sufixo, conforme sugestão de "Status em branco").
+Cenário 4: Integridade do SAP
+•	Dado que esta funcionalidade foi implementada no IRIS
+•	Quando qualquer processo SAP relacionado for executado
+•	Então o comportamento do SAP deve permanecer inalterado (conforme escopo definido).
+🧪 Cenários de Teste de Validação (Caminho Feliz)
+1.	Validação de Sucesso (Status "Success"):
+o	Passos: Simular (via mock ou teste) uma chamada à API do NxTDC onde o status retornado é "Success". Executar o fluxo do IRIS.
+o	Esperado: Verificar na pasta de destino que o arquivo jobReport.xml foi salvo com o nome JobReport_Success.xml.
+2.	Validação de Falha (Status "Fail"):
+o	Passos: Simular uma chamada à API do NxTDC onde o status retornado é "Fail". Executar o fluxo do IRIS.
+o	Esperado: Verificar na pasta de destino que o arquivo jobReport.xml foi salvo com o nome JobReport_Fail.xml.
+❌ Cenários de Teste de Rejeição (Exceções)
+1.	Rejeição de Status (Nulo ou Vazio):
+o	Passos: Simular uma chamada à API do NxTDC onde o campo de status retorna null ou uma string vazia "".
+o	Esperado: Verificar na pasta de destino que o arquivo foi salvo com o nome legado JobReport.xml (sem sufixo _), conforme Critério de Aceite 3.
+2.	Rejeição de Status (Não Mapeado):
+o	Passos: Simular uma chamada à API do NxTDC onde o status retorna um valor inesperado (ex: "Warning", "Processing", "Cancelled").
+o	Esperado: (Ponto de Atenção para Refinamento) O requisito não define esse comportamento. A US deve ser atualizada após alinhamento com a PO (Izabel) e o time. 
+	(Sugestão de regra): Se o status não for "Success" ou "Fail", tratar como "Fail" (ex: JobReport_Fail.xml) ou como um status desconhecido (ex: JobReport_Unknown.xml) para garantir que não seja processado como sucesso.
+3.	Teste de Regressão (SAP):
+o	Passos: Executar o fluxo de ponta a ponta, incluindo os processos SAP que tangenciam essa interface.
+o	Esperado: Confirmar que não houve nenhuma quebra ou alteração de comportamento no lado do SAP, conforme requisito.
+4.	Teste de Dependência (Impacto no AIT):
+o	Passos: Executar o fluxo de Sucesso (gerando JobReport_Success.xml). Verificar o comportamento do sistema AIT (consumidor).
+o	Esperado: (Alerta de Dependência para o PO) O AIT precisa estar preparado para ler os novos nomes de arquivo. Se o AIT ainda estiver procurando exclusivamente por jobReport.xml, o fluxo dele irá falhar. Esta entrega precisa ser coordenada com o time do AIT.</t>
         </is>
       </c>
       <c r="N2" s="19" t="inlineStr">
@@ -989,17 +1025,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>TRE-1598</t>
+          <t>TRE-1626</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>TRE-1599</t>
+          <t>TRE-1627</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>TRE-1600</t>
+          <t>TRE-1628</t>
         </is>
       </c>
     </row>
@@ -1025,16 +1061,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="2.28515625" customWidth="1" min="1" max="1"/>
-    <col width="23.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="2.28515625" customWidth="1" min="3" max="3"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="2.28515625" customWidth="1" min="5" max="5"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="43.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="2.28515625" customWidth="1" min="8" max="8"/>
+    <col width="2.33203125" customWidth="1" min="1" max="1"/>
+    <col width="23.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="2.33203125" customWidth="1" min="3" max="3"/>
+    <col width="19.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="2.33203125" customWidth="1" min="5" max="5"/>
+    <col width="25.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="43.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="2.33203125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1059,7 +1095,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.45" customHeight="1">
+    <row r="3" ht="14.4" customHeight="1">
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>NOVO DESENVOLVIMENTO</t>
@@ -1181,7 +1217,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row r="9" ht="14.4" customHeight="1">
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Caso de Teste</t>

--- a/JIRA/teste.xlsx
+++ b/JIRA/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4446321B7D5111D06ED9DBB5ED788AB8DA5A11D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30FE4857-C6D3-44D0-8030-0269A2D1B7A9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_029D2FA47C44B388A73B28AD95D1C8E1461DC71D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556BA50A-C482-4A3D-A35B-B5395E75BB14}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>TicketT</t>
   </si>
   <si>
-    <t>TRE</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <t>SCTASK0426427</t>
   </si>
   <si>
-    <t>125</t>
+    <t>125 (GUT)</t>
   </si>
   <si>
     <t>INTERFACE</t>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Caso de Uso</t>
+  </si>
+  <si>
+    <t>RPA</t>
   </si>
 </sst>
 </file>
@@ -564,10 +564,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,60 +1019,60 @@
     </row>
     <row r="2" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="15">
         <v>50000</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J2,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" s="12" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$L2,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="S2" s="13">
         <v>2</v>
@@ -1153,108 +1149,108 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
